--- a/biology/Botanique/Ruellia/Ruellia.xlsx
+++ b/biology/Botanique/Ruellia/Ruellia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruellia est un genre appartenant à la famille des Acanthaceae. Il comprend environ 250 espèces de plantes herbacées.
 Ce sont des plantes principalement originaires des régions tropicales ou subtropicales. Quelques espèces sont originaires des régions tempérées d'Amérique du Nord où elles sont communément appelées pétunia[réf. nécessaire].
@@ -515,7 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon "The Plant List"[1] 16 janvier 2018
+          <t>Selon "The Plant List"[1] 16 janvier 2018</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ruellia acutangula Nees
 Ruellia adenocalyx Lindau
 Ruellia adenostachya Lindau
@@ -786,7 +804,43 @@
 Ruellia woolstonii C. Ezcurra
 Ruellia wurdackii Wassh.
 Ruellia yurimaguensis Lindau
-Selon ITIS      (6 juin 2012)[2]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ruellia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ruellia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Listes d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (6 juin 2012)[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ruellia blechum L.
 Ruellia brevifolia (Pohl) C. Ezcurra
 Ruellia caroliniensis (J.F. Gmel.) Steud.
@@ -828,34 +882,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Ruellia</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ruellia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[1] 7 juin 2012
-Ruellia abbreviata D.N. Gibson = Ruellia lactea Cav.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List"[1] 7 juin 2012</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ruellia abbreviata D.N. Gibson = Ruellia lactea Cav.
 Ruellia achimeniflora (Oerst.) Hemsl. = Ruellia jussieuoides Schltdl. &amp; Cham.
 Ruellia adhaerens Forssk. = Priva adhaerens (Forssk.) Chiov.
 Ruellia alata Wall. = Strobilanthes wallichii Nees.
